--- a/F_dataset/DUD-E/PLK1/PLK1_preprocessing/PLK1_valid.xlsx
+++ b/F_dataset/DUD-E/PLK1/PLK1_preprocessing/PLK1_valid.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD50E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E575230&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD53F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E575150&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD5460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E576650&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD5540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59B0D0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD55B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A650&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD58C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A490&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD5A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A3B0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD60A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A2D0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD6110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A340&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD61F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A260&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD6260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A180&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C14829199</t>
+          <t>C51994630</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C=C(C)[C@@H]1Cc2c(cc(O)c3c2O[C@H]2[C@@H](O)Oc4cc(OC)c(OC)cc4[C@]2(O)C3=O)O1</t>
+          <t>Nc1cc(S(=O)(=O)N[C@@H]2CCCC[C@@H]2O)c(Cl)cc1F</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C=C(C)[C@@H]1Cc2c(cc(O)c3c2O[C@H]2[C@@H](O)Oc4cc(OC)c(OC)cc4[C@]2(O)C3=O)O1</t>
+          <t>Nc1cc(S(=O)(=O)N[C@@H]2CCCC[C@@H]2O)c(Cl)cc1F</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>442.42</v>
+        <v>322.79</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>123.91</v>
+        <v>92.42</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD5770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2570&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C12817980</t>
+          <t>C62826873</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C[C@H](C(=O)Nc1ccc(F)cc1)[NH+]1CCC(C(=O)NCc2ccccc2)CC1</t>
+          <t>[NH3+]C1(C(=O)Nc2c(Br)cccc2C(=O)[O-])CCCCC1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C[C@H](C(=O)Nc1ccc(F)cc1)[NH+]1CCC(C(=O)NCc2ccccc2)CC1</t>
+          <t>[NH3+]C1(C(=O)Nc2c(Br)cccc2C(=O)[O-])CCCCC1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>384.48</v>
+        <v>341.21</v>
       </c>
       <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
         <v>2</v>
       </c>
-      <c r="J14" t="n">
-        <v>6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3</v>
-      </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>62.64</v>
+        <v>96.87</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD6C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3680&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C39443870</t>
+          <t>C05192110</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C[C@@H]1C[C@H](C2=NN=C(NC(C)(C)C)SC2)[C@H](C)N1c1ncn[nH]1</t>
+          <t>NC(=O)CC12C[C@@H]3CC(C[C@@H](C3)C1)C2=O</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C[C@H]1[C@@H](C2=NN=C(NC(C)(C)C)SC2)C[C@@H](C)N1c1ncn[nH]1</t>
+          <t>NC(=O)CC12C[C@@H]3CC(C[C@@H](C3)C1)C2=O</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>335.48</v>
+        <v>207.27</v>
       </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>81.56</v>
+        <v>60.16</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD7F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2AB0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C62528118</t>
+          <t>C61887089</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cc1cc(N)cc2c1OC[C@@H](C)C(=O)N2C</t>
+          <t>N/C(=N/O)[C@H]1CCC[C@@H]1NC(=O)C1CCOCC1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cc1cc(N)cc2c1OC[C@@H](C)C(=O)N2C</t>
+          <t>N/C(=N/O)[C@H]1CCC[C@@H]1NC(=O)C1CCOCC1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>220.27</v>
+        <v>255.32</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>55.56</v>
+        <v>96.94</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD6AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3450&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C00104205</t>
+          <t>C61444305</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>O=C1c2[nH]nc(-c3ccco3)c2[C@@H](c2ccccc2)N1c1ccccc1</t>
+          <t>N#Cc1ccc(OC(=O)c2ccc3c(c2)NC(=O)CS3)c(Cl)c1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>O=C1c2[nH]nc(-c3ccco3)c2[C@@H](c2ccccc2)N1c1ccccc1</t>
+          <t>N#Cc1ccc(OC(=O)c2ccc3c(c2)NC(=O)CS3)c(Cl)c1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>341.37</v>
+        <v>344.78</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
         <v>3</v>
       </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5</v>
-      </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>62.13</v>
+        <v>79.19</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD5380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3AE0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C61444305</t>
+          <t>C13065548</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(OC(=O)c2ccc3c(c2)NC(=O)CS3)c(Cl)c1</t>
+          <t>Cc1cc(C)c2[nH]c(=O)c(C[NH+](Cc3ccco3)Cc3nnnn3Cc3ccc(F)cc3)cc2c1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(OC(=O)c2ccc3c(c2)NC(=O)CS3)c(Cl)c1</t>
+          <t>Cc1cc(C)c2[nH]c(=O)c(C[NH+](Cc3ccco3)Cc3nnnn3Cc3ccc(F)cc3)cc2c1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>344.78</v>
+        <v>473.53</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
         <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>79.19</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD6CE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2D50&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C11756454</t>
+          <t>C14461183</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CCCCCCNc1nc(Cl)nc2cc(OC)c(OC)cc12</t>
+          <t>Oc1ccc(Br)cc1[C@@H]1Nc2c(OCCOc3ccccc3)cccc2[C@H]2C=CC[C@@H]21</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CCCCCCNc1nc(Cl)nc2cc(OC)c(OC)cc12</t>
+          <t>Oc1ccc(Br)cc1[C@@H]1Nc2c(OCCOc3ccccc3)cccc2[C@H]2C=CC[C@@H]21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>323.82</v>
+        <v>478.39</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>56.27</v>
+        <v>50.72</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD6570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3E60&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C12217201</t>
+          <t>C34896537</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>O=c1c2c3c(sc2ncn1Cc1cccc(F)c1)C[C@H]([NH2+]CCc1c[nH]c2ccccc12)CC3</t>
+          <t>NC(=O)[C@H]1CCC[NH+](CC(=O)N2N=C3/C(=C/c4cccs4)CCC[C@H]3[C@H]2c2cccs2)C1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>O=c1c2c3c(sc2ncn1Cc1cccc(F)c1)C[C@H]([NH2+]CCc1c[nH]c2ccccc12)CC3</t>
+          <t>NC(=O)[C@H]1CCC[NH+](CC(=O)N2N=C3/C(=C/c4cccs4)CCC[C@H]3[C@H]2c2cccs2)C1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>473.6</v>
+        <v>469.66</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
@@ -1808,16 +1808,16 @@
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>67.29000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD5EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3300&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C02335177</t>
+          <t>C33154782</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CSc1nc(NCC[NH+]2CCOCC2)c2sc3nc(-c4ccccc4)c4c(c3c2n1)CCC4</t>
+          <t>COc1cc2c(cc1OC)/C(=N\[NH+]=C1\NC(C)(C)Cc3cc(OC)c(OC)cc31)NC(C)(C)C2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CSc1nc(NCC[NH+]2CCOCC2)c2sc3nc(-c4ccccc4)c4c(c3c2n1)CCC4</t>
+          <t>COc1cc2c(cc1OC)/C(=N\[NH+]=C1\NC(C)(C)Cc3cc(OC)c(OC)cc31)NC(C)(C)C2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>478.67</v>
+        <v>467.59</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>64.37</v>
+        <v>87.31</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD7920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2B90&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C39467570</t>
+          <t>C59817058</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COC1=C[C@H]2C[NH+]3N[P@@](=O)(c4ccccc4O)OC[C@@H]3C[C@@H]2C=C1S(=O)(=O)Oc1ccccc1</t>
+          <t>C/C(=N\Nc1nc(SCCN2CCOCC2)n[nH]1)C12CC3CC(CC(C3)C1)C2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>COC1=C[C@H]2C[NH+]3N[P@@](=O)(c4ccccc4O)OC[C@@H]3C[C@@H]2C=C1S(=O)(=O)Oc1ccccc1</t>
+          <t>C/C(=N\Nc1nc(SCCN2CCOCC2)n[nH]1)C12CC3CC(CC(C3)C1)C2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>505.51</v>
+        <v>404.58</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>115.6</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD7E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2650&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C09512901</t>
+          <t>C05554381</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>N#Cc1c(CCCNc2ncnc3scc(-c4ccc(F)cc4)c23)n[nH]c1N</t>
+          <t>Cc1coc([C@H]2OCO[C@H](C3CC(=O)NC(=O)C3)[C@@H]2O)c1C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>N#Cc1c(CCCNc2ncnc3scc(-c4ccc(F)cc4)c23)n[nH]c1N</t>
+          <t>Cc1coc([C@H]2OCO[C@H](C3CC(=O)NC(=O)C3)[C@@H]2O)c1C</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1999,29 +1999,29 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>393.45</v>
+        <v>309.32</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
         <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>116.3</v>
+        <v>98</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD7370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B27A0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C05635252</t>
+          <t>C43218792</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>O=C(NCCCn1cc[nH+]c1)c1cnn2c1N[C@H](c1ccco1)C[C@H]2C(F)(F)F</t>
+          <t>CCCCN1C(=O)[C@H]2[C@@H](c3cc(Cl)cc(Cl)c3Cl)[NH2+][C@](C(=O)[O-])(c3ccccc3)[C@@H]2C1=O</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>O=C(NCCCn1cc[nH+]c1)c1cnn2c1N[C@H](c1ccco1)C[C@H]2C(F)(F)F</t>
+          <t>CCCCN1C(=O)[C@H]2[C@@H](c3cc(Cl)cc(Cl)c3Cl)[NH2+][C@](C(=O)[O-])(c3ccccc3)[C@@H]2C1=O</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2067,14 +2067,14 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>409.39</v>
+        <v>495.79</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
@@ -2086,10 +2086,10 @@
         <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>91.16</v>
+        <v>94.12</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD78B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2EA0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C38742530</t>
+          <t>CHEMBL4247506</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>COc1ccc(CC2=NN3[C@@H]([C@@H]4C=C(C(C)C)N=N4)NN[C@H]3S2)cc1OC</t>
+          <t>CC(C)n1nc(C#Cc2cccc3cc(-c4cccc(C(F)(F)F)c4)ncc23)c2c(N)ncnc21</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>COc1ccc(CC2=NN3[C@@H]([C@@H]4C=C(C(C)C)N=N4)NN[C@H]3S2)cc1OC</t>
+          <t>CC(C)n1nc(C#Cc2cccc3cc(-c4cccc(C(F)(F)F)c4)ncc23)c2c(N)ncnc21</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2135,40 +2135,66 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>388.5</v>
+        <v>472.47</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
         <v>2</v>
       </c>
-      <c r="I25" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>6</v>
-      </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>82.84</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
+        <v>82.51000000000001</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>CHEMBL4230199</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Inhibition of PLK1 (unknown origin) at 1 uM by mobility shift microfluidics platform based assay relative to control</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD6C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2420&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2206,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C58500444</t>
+          <t>CHEMBL1516890</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2214,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cc1sc2nc([C@H](C)Sc3nnnn3C(C)(C)C)nc(N)c2c1C</t>
+          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cc1sc2nc([C@H](C)Sc3nnnn3C(C)(C)C)nc(N)c2c1C</t>
+          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2203,40 +2229,66 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>363.52</v>
+        <v>275.31</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
+        <v>46.92</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>CHEMBL1962096</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD5150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B26C0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2300,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C43218792</t>
+          <t>CHEMBL191705</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2308,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CCCCN1C(=O)[C@H]2[C@@H](c3cc(Cl)cc(Cl)c3Cl)[NH2+][C@](C(=O)[O-])(c3ccccc3)[C@@H]2C1=O</t>
+          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(C(C)=O)c3)o2)c1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CCCCN1C(=O)[C@H]2[C@@H](c3cc(Cl)cc(Cl)c3Cl)[NH2+][C@](C(=O)[O-])(c3ccccc3)[C@@H]2C1=O</t>
+          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(C(C)=O)c3)o2)c1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2271,40 +2323,66 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>495.79</v>
+        <v>400.46</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>94.12</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
+        <v>98.5</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>CHEMBL1962096</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD5230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2F80&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2394,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C01936458</t>
+          <t>CHEMBL384073</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2402,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CCOc1ccccc1Oc1c(C(F)(F)F)oc2c(C[NH+](CC(C)C)CC(C)C)c(O)ccc2c1=O</t>
+          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc(F)cc2)NC(=O)N1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CCOc1ccccc1Oc1c(C(F)(F)F)oc2c(C[NH+](CC(C)C)CC(C)C)c(O)ccc2c1=O</t>
+          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc(F)cc2)NC(=O)N1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2339,40 +2417,66 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>508.56</v>
+        <v>365.37</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
         <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>73.34</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
+        <v>98.91</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>CHEMBL1962096</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD6D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3990&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2488,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C20357023</t>
+          <t>CHEMBL4213524</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2496,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)CSc2nc3c(=O)[nH]cnc3n2C[C@@H]2CCCO2)c(C)c1</t>
+          <t>Cc1ccc2c(c1)CCN2C(=O)c1ccc2c(n1)N(C1CC1)C(C)C(=O)N2C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)CSc2nc3c(=O)[nH]cnc3n2C[C@@H]2CCCO2)c(C)c1</t>
+          <t>Cc1ccc2c(c1)CCN2C(=O)c1ccc2c(n1)N(C1CC1)C(C)C(=O)N2C</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2407,40 +2511,66 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>413.5</v>
+        <v>376.46</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
         <v>2</v>
       </c>
-      <c r="I29" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>6</v>
-      </c>
       <c r="K29" t="n">
+        <v>5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>56.75</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
         <v>4</v>
       </c>
-      <c r="L29" t="n">
-        <v>3</v>
-      </c>
-      <c r="M29" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>CHEMBL4198487</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Inhibition of PLK1 (unknown origin) at 10 uM using Ser/Thr-16 peptide substrate after 60 mins by Z'-LYTE assay relative to control</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD6B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B25E0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">

--- a/F_dataset/DUD-E/PLK1/PLK1_preprocessing/PLK1_valid.xlsx
+++ b/F_dataset/DUD-E/PLK1/PLK1_preprocessing/PLK1_valid.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL1208958</t>
+          <t>CHEMBL1209676</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,44 +556,44 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N5CCN(C)CC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cccnc4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N5CCN(C)CC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cccnc4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>573.12</v>
+        <v>508.53</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
         <v>6</v>
       </c>
-      <c r="J2" t="n">
-        <v>7</v>
-      </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>89.51000000000001</v>
+        <v>83.03</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E575230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C76810&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL524020</t>
+          <t>CHEMBL1208893</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,44 +624,44 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cnc(N)nc4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cnc(N)nc4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>544.6</v>
+        <v>524.53</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>82.61</v>
+        <v>121.94</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E575150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C766C0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL493545</t>
+          <t>CHEMBL1208965</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,44 +692,44 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-n2cnc3ccc(OCC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccc(NC5CCN(C)CC5)nc4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-n2cnc3ccc(OCC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccc(NC5CCN(C)CC5)nc4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>525.0700000000001</v>
+        <v>587.15</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>82.61</v>
+        <v>98.3</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E576650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C76880&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL484473</t>
+          <t>CHEMBL1209604</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,44 +760,44 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cc1nn(-c2cc(Cl)cc(CCC(=O)O)c2)c2cc(N[C@@H](C)c3ccccc3)ncc12</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4ccccc4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cc1nn(-c2cc(Cl)cc(CCC(=O)O)c2)c2cc(N[C@@H](C)c3ccccc3)ncc12</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4ccccc4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>434.93</v>
+        <v>507.54</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>80.04000000000001</v>
+        <v>70.14</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59B0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C76960&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL516362</t>
+          <t>CHEMBL564067</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,44 +828,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCCCc4ccccc4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCC(O)CC2)cc1Cl</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCCCc4ccccc4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCC(O)CC2)cc1Cl</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>437.52</v>
+        <v>511.05</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>88.59999999999999</v>
+        <v>93.09</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C76A40&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL1209016</t>
+          <t>CHEMBL473630</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cnn(CCN5CCN(C)CC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>COc1cc2ncn(-c3cc(OCC4CCCC4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cnn(CCN5CCN(C)CC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>COc1cc2ncn(-c3cc(OCC4CCCC4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>590.15</v>
+        <v>401.49</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>94.44</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C76AB0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL1094408</t>
+          <t>CHEMBL1209759</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COc1ccc(N2CCN(C)CC2)cc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cn[nH]c4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COc1ccc(N2CCN(C)CC2)cc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cn[nH]c4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>448.53</v>
+        <v>497.5</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
         <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>114.43</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C76B20&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL473630</t>
+          <t>CHEMBL1209606</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCC4CCCC4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4ccncc4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCC4CCCC4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4ccncc4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1047,29 +1047,29 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>401.49</v>
+        <v>508.53</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>88.59999999999999</v>
+        <v>83.03</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C76B90&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL1209759</t>
+          <t>CHEMBL552348</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cn[nH]c4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCS(=O)(=O)CC2)cc1Cl</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cn[nH]c4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCS(=O)(=O)CC2)cc1Cl</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>497.5</v>
+        <v>545.09</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
-        <v>6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5</v>
-      </c>
       <c r="M10" t="n">
-        <v>98.81999999999999</v>
+        <v>107</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C76C00&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL1209606</t>
+          <t>CHEMBL557126</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4ccncc4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCN(C)CC2)cc1Cl</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4ccncc4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCN(C)CC2)cc1Cl</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>508.53</v>
+        <v>510.06</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
-        <v>6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5</v>
-      </c>
       <c r="M11" t="n">
-        <v>83.03</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C76C70&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL552348</t>
+          <t>CHEMBL562735</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCS(=O)(=O)CC2)cc1Cl</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCC(O)C2)cc1Cl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCS(=O)(=O)CC2)cc1Cl</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCC(O)C2)cc1Cl</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>545.09</v>
+        <v>497.02</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>7</v>
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>107</v>
+        <v>93.09</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C76CE0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C51994630</t>
+          <t>C63361845</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nc1cc(S(=O)(=O)N[C@@H]2CCCC[C@@H]2O)c(Cl)cc1F</t>
+          <t>Cc1ccc(S(=O)(=O)N[C@H](CC2=c3ccccc3=[NH+]C2)C(=O)N2CC[C@@]3(O)CCCC[C@H]3C2)cc1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nc1cc(S(=O)(=O)N[C@@H]2CCCC[C@@H]2O)c(Cl)cc1F</t>
+          <t>Cc1ccc(S(=O)(=O)N[C@H](CC2=c3ccccc3=[NH+]C2)C(=O)N2CC[C@@]3(O)CCCC[C@H]3C2)cc1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>322.79</v>
+        <v>496.65</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
@@ -1332,16 +1332,16 @@
         <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
         <v>2</v>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
       <c r="M13" t="n">
-        <v>92.42</v>
+        <v>100.68</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C71A80&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C62826873</t>
+          <t>C20153625</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[NH3+]C1(C(=O)Nc2c(Br)cccc2C(=O)[O-])CCCCC1</t>
+          <t>CC[NH+]1CCN(c2cc(C)c3cc(NC(=S)N4CCN(c5cc(Cl)ccc5C)CC4)ccc3n2)CC1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[NH3+]C1(C(=O)Nc2c(Br)cccc2C(=O)[O-])CCCCC1</t>
+          <t>CC[NH+]1CCN(c2cc(C)c3cc(NC(=S)N4CCN(c5cc(Cl)ccc5C)CC4)ccc3n2)CC1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>341.21</v>
+        <v>524.16</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
       <c r="M14" t="n">
-        <v>96.87</v>
+        <v>39.08</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C71620&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C05192110</t>
+          <t>C63374228</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NC(=O)CC12C[C@@H]3CC(C[C@@H](C3)C1)C2=O</t>
+          <t>COc1ccc2c(c1)=C1CCN[C@@H](c3c([O-])[nH]c(=O)n(C4CCCCC4)c3=O)[C@H]1[NH+]=2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NC(=O)CC12C[C@@H]3CC(C[C@@H](C3)C1)C2=O</t>
+          <t>COc1ccc2c(c1)=C1CCN[C@@H](c3c([O-])[nH]c(=O)n(C4CCCCC4)c3=O)[C@H]1[NH+]=2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>207.27</v>
+        <v>410.47</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
-        <v>60.16</v>
+        <v>113.15</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C715B0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C61887089</t>
+          <t>C29696365</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/C(=N/O)[C@H]1CCC[C@@H]1NC(=O)C1CCOCC1</t>
+          <t>Cc1ccc(C(=O)Nc2cc(S(=O)(=O)Nc3cccc(Cl)c3)ccc2O)o1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N/C(=N/O)[C@H]1CCC[C@@H]1NC(=O)C1CCOCC1</t>
+          <t>Cc1ccc(C(=O)Nc2cc(S(=O)(=O)Nc3cccc(Cl)c3)ccc2O)o1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>255.32</v>
+        <v>406.85</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
         <v>3</v>
       </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>96.94</v>
+        <v>108.64</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C71AF0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C61444305</t>
+          <t>C36271854</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(OC(=O)c2ccc3c(c2)NC(=O)CS3)c(Cl)c1</t>
+          <t>C[C@@H]1CCC[C@H](C)[NH+]1Cc1c(-c2ccc3nc([O-])oc3c2)nc2ccc(N)cn12</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(OC(=O)c2ccc3c(c2)NC(=O)CS3)c(Cl)c1</t>
+          <t>C[C@H]1CCC[C@@H](C)[NH+]1Cc1c(-c2ccc3nc([O-])oc3c2)nc2ccc(N)cn12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>344.78</v>
+        <v>391.48</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>79.19</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C71070&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C13065548</t>
+          <t>C59385602</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cc1cc(C)c2[nH]c(=O)c(C[NH+](Cc3ccco3)Cc3nnnn3Cc3ccc(F)cc3)cc2c1</t>
+          <t>COc1ccc([C@H]2NC(=O)NC(C)=C2C(=O)N/N=C/c2ccccc2F)cc1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cc1cc(C)c2[nH]c(=O)c(C[NH+](Cc3ccco3)Cc3nnnn3Cc3ccc(F)cc3)cc2c1</t>
+          <t>COc1ccc([C@H]2NC(=O)NC(C)=C2C(=O)N/N=C/c2ccccc2F)cc1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>473.53</v>
+        <v>382.4</v>
       </c>
       <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5</v>
-      </c>
       <c r="M18" t="n">
-        <v>94.04000000000001</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C720A0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C14461183</t>
+          <t>C05192110</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Oc1ccc(Br)cc1[C@@H]1Nc2c(OCCOc3ccccc3)cccc2[C@H]2C=CC[C@@H]21</t>
+          <t>NC(=O)CC12C[C@@H]3CC(C[C@@H](C3)C1)C2=O</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Oc1ccc(Br)cc1[C@@H]1Nc2c(OCCOc3ccccc3)cccc2[C@H]2C=CC[C@@H]21</t>
+          <t>NC(=O)CC12C[C@@H]3CC(C[C@@H](C3)C1)C2=O</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>478.39</v>
+        <v>207.27</v>
       </c>
       <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
         <v>4</v>
       </c>
-      <c r="J19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5</v>
-      </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>50.72</v>
+        <v>60.16</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72340&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C34896537</t>
+          <t>C53554699</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NC(=O)[C@H]1CCC[NH+](CC(=O)N2N=C3/C(=C/c4cccs4)CCC[C@H]3[C@H]2c2cccs2)C1</t>
+          <t>C=CCn1c(Sc2ccc(C(=O)NC)cc2[N+](=O)[O-])nnc1-c1ccccc1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NC(=O)[C@H]1CCC[NH+](CC(=O)N2N=C3/C(=C/c4cccs4)CCC[C@H]3[C@H]2c2cccs2)C1</t>
+          <t>C=CCn1c(Sc2ccc(C(=O)NC)cc2[N+](=O)[O-])nnc1-c1ccccc1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>469.66</v>
+        <v>395.44</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>80.2</v>
+        <v>102.95</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72570&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C33154782</t>
+          <t>C13065548</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1OC)/C(=N\[NH+]=C1\NC(C)(C)Cc3cc(OC)c(OC)cc31)NC(C)(C)C2</t>
+          <t>Cc1cc(C)c2[nH]c(=O)c(C[NH+](Cc3ccco3)Cc3nnnn3Cc3ccc(F)cc3)cc2c1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1OC)/C(=N\[NH+]=C1\NC(C)(C)Cc3cc(OC)c(OC)cc31)NC(C)(C)C2</t>
+          <t>Cc1cc(C)c2[nH]c(=O)c(C[NH+](Cc3ccco3)Cc3nnnn3Cc3ccc(F)cc3)cc2c1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>467.59</v>
+        <v>473.53</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>87.31</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2B90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C70CF0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C59817058</t>
+          <t>C34896537</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C/C(=N\Nc1nc(SCCN2CCOCC2)n[nH]1)C12CC3CC(CC(C3)C1)C2</t>
+          <t>NC(=O)[C@H]1CCC[NH+](CC(=O)N2N=C3/C(=C/c4cccs4)CCC[C@H]3[C@H]2c2cccs2)C1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C/C(=N\Nc1nc(SCCN2CCOCC2)n[nH]1)C12CC3CC(CC(C3)C1)C2</t>
+          <t>NC(=O)[C@H]1CCC[NH+](CC(=O)N2N=C3/C(=C/c4cccs4)CCC[C@H]3[C@H]2c2cccs2)C1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>404.58</v>
+        <v>469.66</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>78.43000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C721F0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C05554381</t>
+          <t>C12217201</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cc1coc([C@H]2OCO[C@H](C3CC(=O)NC(=O)C3)[C@@H]2O)c1C</t>
+          <t>O=c1c2c3c(sc2ncn1Cc1cccc(F)c1)C[C@H]([NH2+]CCc1c[nH]c2ccccc12)CC3</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cc1coc([C@H]2OCO[C@H](C3CC(=O)NC(=O)C3)[C@@H]2O)c1C</t>
+          <t>O=c1c2c3c(sc2ncn1Cc1cccc(F)c1)C[C@H]([NH2+]CCc1c[nH]c2ccccc12)CC3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1999,29 +1999,29 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>309.32</v>
+        <v>473.6</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
         <v>6</v>
       </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>98</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B27A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C70970&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C43218792</t>
+          <t>C19790688</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CCCCN1C(=O)[C@H]2[C@@H](c3cc(Cl)cc(Cl)c3Cl)[NH2+][C@](C(=O)[O-])(c3ccccc3)[C@@H]2C1=O</t>
+          <t>CC(C)[C@H]1CC[C@H](C)C[C@@H]1OC[C@@H](O)CN1CC[NH+](CCN2C(=O)c3cccc4cccc(c34)C2=O)CC1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CCCCN1C(=O)[C@H]2[C@@H](c3cc(Cl)cc(Cl)c3Cl)[NH2+][C@](C(=O)[O-])(c3ccccc3)[C@@H]2C1=O</t>
+          <t>CC(C)[C@H]1CC[C@H](C)C[C@@H]1OC[C@@H](O)CN1CC[NH+](CCN2C(=O)c3cccc4cccc(c34)C2=O)CC1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>495.79</v>
+        <v>522.71</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
         <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>94.12</v>
+        <v>74.52</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C70AC0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL4247506</t>
+          <t>C05554381</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CC(C)n1nc(C#Cc2cccc3cc(-c4cccc(C(F)(F)F)c4)ncc23)c2c(N)ncnc21</t>
+          <t>Cc1coc([C@H]2OCO[C@H](C3CC(=O)NC(=O)C3)[C@@H]2O)c1C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CC(C)n1nc(C#Cc2cccc3cc(-c4cccc(C(F)(F)F)c4)ncc23)c2c(N)ncnc21</t>
+          <t>Cc1coc([C@H]2OCO[C@H](C3CC(=O)NC(=O)C3)[C@@H]2O)c1C</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2135,66 +2135,40 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>472.47</v>
+        <v>309.32</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>82.51000000000001</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>CHEMBL4230199</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin) at 1 uM by mobility shift microfluidics platform based assay relative to control</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C718C0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2206,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL1516890</t>
+          <t>C36622497</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2214,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
+          <t>C[C@@H]1CC(C)(C)C[C@]2(C1)NC(=O)N(CC(=O)NCc1cc([N+](=O)[O-])ccc1O)C2=O</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
+          <t>C[C@@H]1CC(C)(C)C[C@]2(C1)NC(=O)N(CC(=O)NCc1cc([N+](=O)[O-])ccc1O)C2=O</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2229,66 +2203,40 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>275.31</v>
+        <v>418.45</v>
       </c>
       <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3</v>
-      </c>
       <c r="M26" t="n">
-        <v>46.92</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>141.88</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B26C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C71A10&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2300,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL191705</t>
+          <t>C13352661</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2308,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(C(C)=O)c3)o2)c1</t>
+          <t>Cc1c(C(=O)[O-])sc2nc(CSc3nc(-c4ccc(Cl)cc4)n[nH]3)[nH]c(=O)c12</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(C(C)=O)c3)o2)c1</t>
+          <t>Cc1c(C(=O)[O-])sc2nc(CSc3nc(-c4ccc(Cl)cc4)n[nH]3)[nH]c(=O)c12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2323,66 +2271,40 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>400.46</v>
+        <v>432.89</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
         <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>127.45</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2F80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C71850&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2394,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL384073</t>
+          <t>C13692508</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2402,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc(F)cc2)NC(=O)N1</t>
+          <t>Cc1nc(Nc2nc(CCC(C)C)cc(=O)[nH]2)nc2c(C)cccc12</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc(F)cc2)NC(=O)N1</t>
+          <t>Cc1nc(Nc2nc(CCC(C)C)cc(=O)[nH]2)nc2c(C)cccc12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2417,66 +2339,40 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>365.37</v>
+        <v>337.43</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="n">
         <v>3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4</v>
       </c>
       <c r="L28" t="n">
         <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>98.91</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>83.56</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C71BD0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2488,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL4213524</t>
+          <t>C12637817</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2496,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(c1)CCN2C(=O)c1ccc2c(n1)N(C1CC1)C(C)C(=O)N2C</t>
+          <t>CCc1ccccc1N(C(=O)c1ccc2c(c1)OCCO2)[C@H](C(=O)NC1CCCC1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(c1)CCN2C(=O)c1ccc2c(n1)N(C1CC1)C(C)C(=O)N2C</t>
+          <t>CCc1ccccc1N(C(=O)c1ccc2c(c1)OCCO2)[C@H](C(=O)NC1CCCC1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2511,66 +2407,40 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>376.46</v>
+        <v>500.6</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
         <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>56.75</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>CHEMBL4198487</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin) at 10 uM using Ser/Thr-16 peptide substrate after 60 mins by Z'-LYTE assay relative to control</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>88.09999999999999</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B25E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C71380&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
